--- a/Presidents.xlsx
+++ b/Presidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBAProject\CSV-Parsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C02D22-9C65-45C6-A2DF-6574B04984A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C92A19C-B462-4813-B3FF-6BBE11F22A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064EE75E-277F-4016-84F9-9375810E127D}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
